--- a/Översikt HÄLLEFORS.xlsx
+++ b/Översikt HÄLLEFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45628</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>45951</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         <v>45132</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44323</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>45758.55810185185</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>45908.51018518519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>44314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45758.56012731481</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>44957</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>44594</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>45916.51012731482</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         <v>45916.50061342592</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45646.63039351852</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>45845.40576388889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>45755.40261574074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>45540.37113425926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45989.65802083333</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>45784</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>44442.37515046296</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         <v>44818</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>44543</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>45548.57174768519</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>45692</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>45478.42475694444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>45763.51037037037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>46000.515625</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>45755.38237268518</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>45176</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>44909</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>45663.949375</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>45623.32523148148</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>45399.34171296296</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>44271</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>44699</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>44264</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>44795</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>44862</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>44819</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>44314</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44314</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>44748</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>44719.37908564815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>44832.73575231482</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>44314</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>44792.65326388889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>44238</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>44350</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>44792.45469907407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>44477</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>44266</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>44453</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>44314</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>44357</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44721</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44606.48085648148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44515</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>44714.49141203704</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>44871.71204861111</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>44260</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>44525.66660879629</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>44525</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>44858</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44839</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>44792</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44812.48020833333</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>44616</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>44887</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44386</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>44525.65945601852</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>44810.66189814815</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>44256</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>44750</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>44593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         <v>44754</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>44754</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6198,7 +6198,7 @@
         <v>44590.84471064815</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
         <v>44817.51229166667</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>44610</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         <v>44708.64967592592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>44762</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>44782</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>45168</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         <v>44907</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         <v>45624.68584490741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>45572.59605324074</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>44560.52915509259</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>45007.42528935185</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>45335</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>45764.44396990741</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>45201</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>45238</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>45027</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>45483.46465277778</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44543</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44806</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>45544.62276620371</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>45692.37509259259</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>45145.61096064815</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>45755.39212962963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>45450.3955787037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>45572.61984953703</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>45145.60365740741</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>44825.64613425926</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>44754</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45212</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>45055</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>45681</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>45888.6637962963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>44657</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>44817.34144675926</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>45691.44689814815</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         <v>44924.593125</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>44525.47178240741</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         <v>45891.68451388889</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         <v>45730.6371412037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8588,7 +8588,7 @@
         <v>45817.62070601852</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>45037.50085648148</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>45755.65709490741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44515.35802083334</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>45895.85320601852</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>45187</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45898.5128587963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>45217</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>45567.27908564815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>45162</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>45821</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>45821.35136574074</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>44867.35501157407</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9374,7 +9374,7 @@
         <v>44832.73646990741</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>44954.27407407408</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>45110.90550925926</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>45750.44355324074</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>45412.35543981481</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>45642.34987268518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44817</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44981</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>45427.26467592592</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         <v>45916.5037037037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>45715.57903935185</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>45831.58487268518</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>45434.5571412037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>44663.63033564815</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         <v>45635</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>45219.37791666666</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
         <v>45923.83761574074</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10378,7 +10378,7 @@
         <v>45551</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10435,7 +10435,7 @@
         <v>45666.49185185185</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10492,7 +10492,7 @@
         <v>44923</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10549,7 +10549,7 @@
         <v>45835.58846064815</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10611,7 +10611,7 @@
         <v>45926.52738425926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10668,7 +10668,7 @@
         <v>45728</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>44496.5028125</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>45068.53265046296</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>45917</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>45481.58833333333</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>45839.50719907408</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>45932.38244212963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>45932.42637731481</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>45839.51949074074</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11196,7 +11196,7 @@
         <v>45694</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         <v>45715.57984953704</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         <v>45932.39532407407</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44438.65045138889</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>45932.38914351852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>45932.40252314815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>44756</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>45936</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>45936.85859953704</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>45309</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>45845.36700231482</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11863,7 +11863,7 @@
         <v>45845.37002314815</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>45845.34341435185</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>45845.34695601852</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>45845.37733796296</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         <v>45845.38480324074</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12168,7 +12168,7 @@
         <v>45845.40813657407</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12225,7 +12225,7 @@
         <v>45700.62762731482</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12282,7 +12282,7 @@
         <v>45077.39368055556</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>45845.41988425926</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>44868.3935300926</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>45845.35355324074</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12525,7 +12525,7 @@
         <v>45845.41581018519</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12582,7 +12582,7 @@
         <v>45845.36309027778</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>45845.34983796296</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>45845.35546296297</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>45845.47775462963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>45845.4264699074</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>45946.62914351852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>45946.47722222222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>45946.48537037037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>45710.81305555555</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>45755.62278935185</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>45691.425625</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         <v>45756.68074074074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44616</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>45523</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>45763.37480324074</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>45952.72060185186</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>45145.59578703704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>45692.36032407408</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>45755.59307870371</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>45731.46960648148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44804.70893518518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44979</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>45954.41862268518</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>45954.42596064815</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>45334</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>45764.4846412037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14149,7 +14149,7 @@
         <v>45764.495625</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>45692</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44792.64494212963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>45876.34452546296</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>45959.38943287037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>45959.40310185185</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>45399</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>45201</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>45959.41048611111</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>45961.5049537037</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>45959.37532407408</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>45666.49216435185</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>45623.32141203704</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>45548</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>45238</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>45755.5997337963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>45968.533125</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>45882.58855324074</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>45750</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>45824</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>45201</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>44348</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>45763</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>45884</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>45763.58991898148</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>45582</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>44930</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>45980.5859375</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>45643</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>45980.45798611111</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>44613</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>45567.29131944444</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16130,7 +16130,7 @@
         <v>46024.36721064815</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>45755.58488425926</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16254,7 +16254,7 @@
         <v>45987.55640046296</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>45987.57491898148</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>45987.58652777778</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>45987.56550925926</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16502,7 +16502,7 @@
         <v>45987.57672453704</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>45987.58177083333</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>44613</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>45987.57128472222</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>45987.56333333333</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>45372.59753472222</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>45493.31666666667</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>45201</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>46035.33097222223</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>44798</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>45763.53284722222</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>44351</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>45316</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>45239</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>45999.50795138889</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>46042.33357638889</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>46000.40052083333</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         <v>46000.41092592593</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17603,7 +17603,7 @@
         <v>46000.40797453704</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>46043.62747685185</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17722,7 +17722,7 @@
         <v>45427.79534722222</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>46001.42888888889</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>46043.59318287037</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>46000.56178240741</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>45755.39711805555</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>45572.63357638889</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18084,7 +18084,7 @@
         <v>45763.49344907407</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>46044.61620370371</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>45219.44366898148</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>45195.35254629629</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>45022</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>45764.56091435185</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>46007.40847222223</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18503,7 +18503,7 @@
         <v>45623.3168287037</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         <v>46006.61628472222</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         <v>45764.50498842593</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18684,7 +18684,7 @@
         <v>46008.69574074074</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18741,7 +18741,7 @@
         <v>46008.74070601852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>45232</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18865,7 +18865,7 @@
         <v>45755.40039351852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18927,7 +18927,7 @@
         <v>46008.69076388889</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18984,7 +18984,7 @@
         <v>46008.6987037037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19041,7 +19041,7 @@
         <v>45440</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19098,7 +19098,7 @@
         <v>45007.42442129629</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>45493.3153125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>45000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>45698</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>46053.93969907407</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>46053.99731481481</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>46057.29586805555</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>45769</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44411</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44383</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>44746.34457175926</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>44525.63929398148</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>46057.2934837963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>46014.34587962963</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19931,7 +19931,7 @@
         <v>45176.56863425926</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>45009</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>45572.62980324074</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>45601.60576388889</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44782</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>45590</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44592</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>45363.53322916666</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20417,7 +20417,7 @@
         <v>45763</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20479,7 +20479,7 @@
         <v>44874</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20541,7 +20541,7 @@
         <v>44308</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20598,7 +20598,7 @@
         <v>45534.58140046296</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20660,7 +20660,7 @@
         <v>44460</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20717,7 +20717,7 @@
         <v>44749.39806712963</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20774,7 +20774,7 @@
         <v>45238</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>45572.48516203704</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45687.51539351852</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>45755.61793981482</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21017,7 +21017,7 @@
         <v>45098.65641203704</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>45450.39145833333</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>45643</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21193,7 +21193,7 @@
         <v>44522.66836805556</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>45219.44515046296</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>45763.64383101852</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>45174</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>45176</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21498,7 +21498,7 @@
         <v>45237.83621527778</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>45763</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>45642.37226851852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>44523</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>45764.55017361111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>45533.33909722222</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>45236.58434027778</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>45541.42298611111</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44960.50733796296</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>45572.6216087963</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>45583.34902777777</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>45082</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22217,7 +22217,7 @@
         <v>45303</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22274,7 +22274,7 @@
         <v>45621</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44902.3759375</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22393,7 +22393,7 @@
         <v>45162</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22455,7 +22455,7 @@
         <v>45372.58425925926</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22512,7 +22512,7 @@
         <v>45731.47399305556</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22569,7 +22569,7 @@
         <v>45758.5594212963</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22631,7 +22631,7 @@
         <v>45742.55043981481</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>44260</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>45756</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>45756</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22864,7 +22864,7 @@
         <v>45231</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
         <v>44608.45725694444</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22978,7 +22978,7 @@
         <v>44942</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>45572.40844907407</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23097,7 +23097,7 @@
         <v>45643.69060185185</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44823</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>45715.57746527778</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>45758.55883101852</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>45692.40298611111</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23397,7 +23397,7 @@
         <v>45755.68921296296</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23459,7 +23459,7 @@
         <v>45763.57651620371</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23521,7 +23521,7 @@
         <v>44861</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>45758.35846064815</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>45642.35061342592</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>45642.35097222222</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>44907.59805555556</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         <v>45777.43930555556</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>45776.43351851852</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23950,7 +23950,7 @@
         <v>45777.56322916667</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>45777.64827546296</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>45755</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24136,7 +24136,7 @@
         <v>45764</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>45195</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24250,7 +24250,7 @@
         <v>45490.70074074074</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>45420</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         <v>45764</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24421,7 +24421,7 @@
         <v>45764</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24478,7 +24478,7 @@
         <v>45614.43358796297</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24535,7 +24535,7 @@
         <v>45764</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24592,7 +24592,7 @@
         <v>45764</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24649,7 +24649,7 @@
         <v>45145</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24711,7 +24711,7 @@
         <v>45784</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24768,7 +24768,7 @@
         <v>45589.31677083333</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>45642.35274305556</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>45533.68363425926</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24954,7 +24954,7 @@
         <v>45784.34652777778</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>44817.50186342592</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>45533</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>45614.44175925926</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>45462.35787037037</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>45643.34040509259</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25311,7 +25311,7 @@
         <v>45478.38640046296</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25373,7 +25373,7 @@
         <v>45534.30509259259</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         <v>45517.32866898148</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25497,7 +25497,7 @@
         <v>45588.61716435185</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>44876.30667824074</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25621,7 +25621,7 @@
         <v>45343</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>45733.39797453704</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25740,7 +25740,7 @@
         <v>45533.33751157407</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>45572.6396875</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>45621.28127314815</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>45692.30760416666</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25988,7 +25988,7 @@
         <v>45691.43619212963</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>

--- a/Översikt HÄLLEFORS.xlsx
+++ b/Översikt HÄLLEFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45628</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>45951</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         <v>45132</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44323</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>45758.55810185185</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>45908.51018518519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>44314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45758.56012731481</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>44957</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>44594</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>45916.51012731482</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         <v>45916.50061342592</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45646.63039351852</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>45845.40576388889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>45755.40261574074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>45540.37113425926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45989.65802083333</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>45784</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>44442.37515046296</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         <v>44818</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>44543</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>45548.57174768519</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>45692</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>45478.42475694444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>45763.51037037037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>46000.515625</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>45755.38237268518</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>45176</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>44909</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>45663.949375</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>45623.32523148148</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>45399.34171296296</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>44271</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>44699</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>44264</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>44795</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>44862</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>44819</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>44314</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44314</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>44748</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>44719.37908564815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>44832.73575231482</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>44314</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>44792.65326388889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>44238</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>44350</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>44792.45469907407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>44477</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>44266</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>44453</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>44314</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>44357</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>44721</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>44606.48085648148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44515</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>44714.49141203704</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>44871.71204861111</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>44260</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>44525.66660879629</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>44525</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>44858</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44839</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>44792</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44812.48020833333</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>44616</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>44887</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44386</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>44525.65945601852</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>44810.66189814815</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>44256</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>44750</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>44593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         <v>44754</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>44754</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6198,7 +6198,7 @@
         <v>44590.84471064815</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
         <v>44817.51229166667</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>44610</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         <v>44708.64967592592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>44762</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>44782</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>45168</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         <v>44907</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         <v>45624.68584490741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>45572.59605324074</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>44560.52915509259</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>45007.42528935185</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>45335</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>45764.44396990741</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>45201</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>45238</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>45027</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>45483.46465277778</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44543</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44806</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>45544.62276620371</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>45692.37509259259</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>45145.61096064815</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>45755.39212962963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>45450.3955787037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>45572.61984953703</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>45145.60365740741</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>44825.64613425926</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>44754</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45212</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>45055</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>45681</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>45888.6637962963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>44657</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>44817.34144675926</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>45691.44689814815</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         <v>44924.593125</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>44525.47178240741</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         <v>45891.68451388889</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         <v>45730.6371412037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8588,7 +8588,7 @@
         <v>45817.62070601852</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>45037.50085648148</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>45755.65709490741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>44515.35802083334</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>45895.85320601852</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>45187</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45898.5128587963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>45217</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>45567.27908564815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>45162</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>45821</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>45821.35136574074</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>44867.35501157407</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9374,7 +9374,7 @@
         <v>44832.73646990741</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>44954.27407407408</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>45110.90550925926</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>45750.44355324074</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>45412.35543981481</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>45642.34987268518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44817</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44981</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>45427.26467592592</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         <v>45916.5037037037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>45715.57903935185</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>45831.58487268518</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>45434.5571412037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>44663.63033564815</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         <v>45635</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>45219.37791666666</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
         <v>45923.83761574074</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10378,7 +10378,7 @@
         <v>45551</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10435,7 +10435,7 @@
         <v>45666.49185185185</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10492,7 +10492,7 @@
         <v>44923</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10549,7 +10549,7 @@
         <v>45835.58846064815</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10611,7 +10611,7 @@
         <v>45926.52738425926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10668,7 +10668,7 @@
         <v>45728</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>44496.5028125</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>45068.53265046296</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>45917</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>45481.58833333333</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>45839.50719907408</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>45932.38244212963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>45932.42637731481</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>45839.51949074074</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11196,7 +11196,7 @@
         <v>45694</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         <v>45715.57984953704</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         <v>45932.39532407407</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44438.65045138889</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>45932.38914351852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>45932.40252314815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>44756</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>45936</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>45936.85859953704</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>45309</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>45845.36700231482</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11863,7 +11863,7 @@
         <v>45845.37002314815</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>45845.34341435185</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>45845.34695601852</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>45845.37733796296</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         <v>45845.38480324074</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12168,7 +12168,7 @@
         <v>45845.40813657407</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12225,7 +12225,7 @@
         <v>45700.62762731482</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12282,7 +12282,7 @@
         <v>45077.39368055556</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>45845.41988425926</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>44868.3935300926</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>45845.35355324074</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12525,7 +12525,7 @@
         <v>45845.41581018519</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12582,7 +12582,7 @@
         <v>45845.36309027778</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>45845.34983796296</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>45845.35546296297</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>45845.47775462963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>45845.4264699074</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>45946.62914351852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>45946.47722222222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>45946.48537037037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>45710.81305555555</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>45755.62278935185</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>45691.425625</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         <v>45756.68074074074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44616</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>45523</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>45763.37480324074</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>45952.72060185186</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>45145.59578703704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>45692.36032407408</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>45755.59307870371</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>45731.46960648148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>44804.70893518518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>44979</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>45954.41862268518</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>45954.42596064815</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>45334</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>45764.4846412037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14149,7 +14149,7 @@
         <v>45764.495625</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>45692</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44792.64494212963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>45876.34452546296</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>45959.38943287037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>45959.40310185185</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>45399</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>45201</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>45959.41048611111</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>45961.5049537037</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>45959.37532407408</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>45666.49216435185</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>45623.32141203704</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>45548</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>45238</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>45755.5997337963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>45968.533125</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>45882.58855324074</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>45750</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>45824</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>45201</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>44348</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>45763</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>45884</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>45763.58991898148</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>45582</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>44930</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>45980.5859375</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>45643</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>45980.45798611111</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>44613</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>45567.29131944444</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16130,7 +16130,7 @@
         <v>46024.36721064815</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>45755.58488425926</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16254,7 +16254,7 @@
         <v>45987.55640046296</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>45987.57491898148</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>45987.58652777778</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>45987.56550925926</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16502,7 +16502,7 @@
         <v>45987.57672453704</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>45987.58177083333</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>44613</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>45987.57128472222</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>45987.56333333333</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>45372.59753472222</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>45493.31666666667</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>45201</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>46035.33097222223</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>44798</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>45763.53284722222</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>44351</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>45316</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>45239</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>45999.50795138889</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>46042.33357638889</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>46000.40052083333</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         <v>46000.41092592593</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17603,7 +17603,7 @@
         <v>46000.40797453704</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>46043.62747685185</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17722,7 +17722,7 @@
         <v>45427.79534722222</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>46001.42888888889</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>46043.59318287037</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>46000.56178240741</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>45755.39711805555</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>45572.63357638889</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18084,7 +18084,7 @@
         <v>45763.49344907407</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>46044.61620370371</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>45219.44366898148</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>45195.35254629629</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>45022</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>45764.56091435185</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>46007.40847222223</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18503,7 +18503,7 @@
         <v>45623.3168287037</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         <v>46006.61628472222</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         <v>45764.50498842593</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18684,7 +18684,7 @@
         <v>46008.69574074074</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18741,7 +18741,7 @@
         <v>46008.74070601852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>45232</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18865,7 +18865,7 @@
         <v>45755.40039351852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18927,7 +18927,7 @@
         <v>46008.69076388889</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18984,7 +18984,7 @@
         <v>46008.6987037037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19041,7 +19041,7 @@
         <v>45440</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19098,7 +19098,7 @@
         <v>45007.42442129629</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>45493.3153125</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>45000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>45698</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>46053.93969907407</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>46053.99731481481</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>46057.29586805555</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>45769</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44411</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44383</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>44746.34457175926</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>44525.63929398148</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>46057.2934837963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>46014.34587962963</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19931,7 +19931,7 @@
         <v>45176.56863425926</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>45009</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>45572.62980324074</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>45601.60576388889</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44782</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>45590</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44592</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>45363.53322916666</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20417,7 +20417,7 @@
         <v>45763</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20479,7 +20479,7 @@
         <v>44874</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20541,7 +20541,7 @@
         <v>44308</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20598,7 +20598,7 @@
         <v>45534.58140046296</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20660,7 +20660,7 @@
         <v>44460</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20717,7 +20717,7 @@
         <v>44749.39806712963</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20774,7 +20774,7 @@
         <v>45238</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>45572.48516203704</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45687.51539351852</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>45755.61793981482</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21017,7 +21017,7 @@
         <v>45098.65641203704</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>45450.39145833333</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>45643</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21193,7 +21193,7 @@
         <v>44522.66836805556</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>45219.44515046296</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>45763.64383101852</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>45174</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>45176</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21498,7 +21498,7 @@
         <v>45237.83621527778</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>45763</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>45642.37226851852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>44523</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>45764.55017361111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>45533.33909722222</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>45236.58434027778</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>45541.42298611111</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44960.50733796296</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>45572.6216087963</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>45583.34902777777</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>45082</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22217,7 +22217,7 @@
         <v>45303</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22274,7 +22274,7 @@
         <v>45621</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44902.3759375</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22393,7 +22393,7 @@
         <v>45162</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22455,7 +22455,7 @@
         <v>45372.58425925926</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22512,7 +22512,7 @@
         <v>45731.47399305556</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22569,7 +22569,7 @@
         <v>45758.5594212963</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22631,7 +22631,7 @@
         <v>45742.55043981481</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>44260</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>45756</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>45756</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22864,7 +22864,7 @@
         <v>45231</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
         <v>44608.45725694444</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22978,7 +22978,7 @@
         <v>44942</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>45572.40844907407</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23097,7 +23097,7 @@
         <v>45643.69060185185</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44823</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>45715.57746527778</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>45758.55883101852</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>45692.40298611111</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23397,7 +23397,7 @@
         <v>45755.68921296296</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23459,7 +23459,7 @@
         <v>45763.57651620371</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23521,7 +23521,7 @@
         <v>44861</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>45758.35846064815</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>45642.35061342592</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>45642.35097222222</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>44907.59805555556</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         <v>45777.43930555556</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>45776.43351851852</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23950,7 +23950,7 @@
         <v>45777.56322916667</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>45777.64827546296</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>45755</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24136,7 +24136,7 @@
         <v>45764</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>45195</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24250,7 +24250,7 @@
         <v>45490.70074074074</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>45420</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         <v>45764</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24421,7 +24421,7 @@
         <v>45764</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24478,7 +24478,7 @@
         <v>45614.43358796297</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24535,7 +24535,7 @@
         <v>45764</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24592,7 +24592,7 @@
         <v>45764</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24649,7 +24649,7 @@
         <v>45145</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24711,7 +24711,7 @@
         <v>45784</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24768,7 +24768,7 @@
         <v>45589.31677083333</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>45642.35274305556</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>45533.68363425926</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24954,7 +24954,7 @@
         <v>45784.34652777778</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>44817.50186342592</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>45533</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>45614.44175925926</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>45462.35787037037</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>45643.34040509259</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25311,7 +25311,7 @@
         <v>45478.38640046296</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25373,7 +25373,7 @@
         <v>45534.30509259259</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         <v>45517.32866898148</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25497,7 +25497,7 @@
         <v>45588.61716435185</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>44876.30667824074</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25621,7 +25621,7 @@
         <v>45343</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>45733.39797453704</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25740,7 +25740,7 @@
         <v>45533.33751157407</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>45572.6396875</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>45621.28127314815</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>45692.30760416666</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25988,7 +25988,7 @@
         <v>45691.43619212963</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>

--- a/Översikt HÄLLEFORS.xlsx
+++ b/Översikt HÄLLEFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45628</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>45951</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         <v>45132</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44323</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>45758.55810185185</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>45908.51018518519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>44314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>46072</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>45758.56012731481</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>44957</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>44594</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>45646.63039351852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45845.40576388889</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>45916.51012731482</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>45916.50061342592</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>45540.37113425926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>45755.40261574074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
         <v>45989.65802083333</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>45784</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>44442.37515046296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44818</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>44543</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>45548.57174768519</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45692</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>45478.42475694444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>45763.51037037037</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>46000.515625</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>45755.38237268518</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>45176</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44909</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>45663.949375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>45623.32523148148</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>45399.34171296296</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>44271</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>44699</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>44264</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>44795</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44862</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>44314</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44314</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>44819</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>44748</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>44719.37908564815</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>44832.73575231482</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>44314</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>44792.65326388889</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>44350</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>44792.45469907407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>44266</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44477</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>44453</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>44314</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44357</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>44721</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>44606.48085648148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44515</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44714.49141203704</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44871.71204861111</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44260</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         <v>44525.66660879629</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5271,7 +5271,7 @@
         <v>44525</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>44858</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>44839</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>44792</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44812.48020833333</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>44616</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44887</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44810.66189814815</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>44386</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44525.65945601852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44256</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44593</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44750</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>44754</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>44754</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44590.84471064815</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44817.51229166667</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44610</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>44708.64967592592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>44762</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>44782</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44907</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>45624.68584490741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>45168</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45572.59605324074</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>45007.42528935185</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>44560.52915509259</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>45335</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>45764.44396990741</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>45201</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>45238</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>45027</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>45483.46465277778</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>44543</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44806</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>45145.61096064815</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>45450.3955787037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>45544.62276620371</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>45572.61984953703</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>45145.60365740741</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>44825.64613425926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>44754</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>45212</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>45055</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44657</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>44924.593125</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>45681</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>45730.6371412037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
         <v>44525.47178240741</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>45037.50085648148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44515.35802083334</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>45187</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>45821</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>45217</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>45821.35136574074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>45567.27908564815</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>45162</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>45888.6637962963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>45691.44689814815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44867.35501157407</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>44832.73646990741</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>44954.27407407408</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>45110.90550925926</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>45891.68451388889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>45750.44355324074</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>45412.35543981481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>45755.65709490741</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>45642.34987268518</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>45831.58487268518</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>44817</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>45895.85320601852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>44981</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>45898.5128587963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         <v>45427.26467592592</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>45835.58846064815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>45715.57903935185</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>45839.50719907408</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>45839.51949074074</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>45434.5571412037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44663.63033564815</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10103,7 +10103,7 @@
         <v>45635</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>45219.37791666666</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>45551</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>45666.49185185185</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>44923</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>45845.36700231482</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>45845.37002314815</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         <v>45845.34341435185</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>45845.34695601852</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>45845.37733796296</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10693,7 +10693,7 @@
         <v>45845.38480324074</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>45845.40813657407</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>45845.41988425926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>45845.35355324074</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>45845.41581018519</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>45845.36309027778</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         <v>45845.34983796296</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>45845.35546296297</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>45845.47775462963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         <v>45845.4264699074</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>45728</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>44496.5028125</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>45068.53265046296</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>45916.5037037037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>45755.62278935185</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
         <v>45481.58833333333</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         <v>45691.425625</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11712,7 +11712,7 @@
         <v>45756.68074074074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>44616</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>45694</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11893,7 +11893,7 @@
         <v>45715.57984953704</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11950,7 +11950,7 @@
         <v>45523</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12007,7 +12007,7 @@
         <v>44438.65045138889</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>44756</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>45145.59578703704</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>45923.83761574074</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>45692.36032407408</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>45309</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>45755.59307870371</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>45731.46960648148</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>45700.62762731482</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>45077.39368055556</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12612,7 +12612,7 @@
         <v>45926.52738425926</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12669,7 +12669,7 @@
         <v>44868.3935300926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>45692</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>45917</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>45932.38244212963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>45932.42637731481</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>45876.34452546296</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>45932.39532407407</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>45932.38914351852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>45932.40252314815</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         <v>45710.81305555555</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>45936</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>45763.37480324074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>45882.58855324074</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>45936.85859953704</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>44804.70893518518</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>44979</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13636,7 +13636,7 @@
         <v>45824</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>45334</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>45764.4846412037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>45764.495625</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>45201</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13941,7 +13941,7 @@
         <v>45763</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14003,7 +14003,7 @@
         <v>45884</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>45946.62914351852</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44852</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>45692.37509259259</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>45946.47722222222</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44792.64494212963</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>45946.48537037037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>45399</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>45201</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>45952.72060185186</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>45666.49216435185</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>45623.32141203704</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>45548</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>45238</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>45954.41862268518</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>45954.42596064815</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>45755.5997337963</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>45959.38943287037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>45959.40310185185</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>45959.41048611111</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>45750</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>45961.5049537037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>45959.37532407408</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44348</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>45763.58991898148</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>45582</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>44930</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>45643</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>45968.533125</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         <v>44613</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>45567.29131944444</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>45755.58488425926</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>44613</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15989,7 +15989,7 @@
         <v>45980.5859375</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>45372.59753472222</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16103,7 +16103,7 @@
         <v>45980.45798611111</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16160,7 +16160,7 @@
         <v>45987.55640046296</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>45987.57491898148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>45987.58652777778</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>45987.56550925926</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>45987.57672453704</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>45987.58177083333</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>45987.57128472222</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>45493.31666666667</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>45987.56333333333</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>45201</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>44798</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>45763.53284722222</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>44351</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>46035.33097222223</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         <v>45316</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45239</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17142,7 +17142,7 @@
         <v>45427.79534722222</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17199,7 +17199,7 @@
         <v>45999.50795138889</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17261,7 +17261,7 @@
         <v>46042.33357638889</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17323,7 +17323,7 @@
         <v>46000.40052083333</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17385,7 +17385,7 @@
         <v>45755.39711805555</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>46000.41092592593</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17509,7 +17509,7 @@
         <v>46000.40797453704</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>45572.63357638889</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17633,7 +17633,7 @@
         <v>46043.62747685185</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>45763.49344907407</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17752,7 +17752,7 @@
         <v>46001.42888888889</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>46043.59318287037</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>46000.56178240741</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17933,7 +17933,7 @@
         <v>45219.44366898148</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17995,7 +17995,7 @@
         <v>45195.35254629629</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>45022</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>45764.56091435185</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18171,7 +18171,7 @@
         <v>46044.61620370371</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18228,7 +18228,7 @@
         <v>45623.3168287037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>46007.40847222223</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18352,7 +18352,7 @@
         <v>46006.61628472222</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>45764.50498842593</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>45232</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>45755.40039351852</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>45440</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>45007.42442129629</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>46008.69574074074</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>46008.74070601852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>45493.3153125</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>46008.69076388889</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>45000</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>45698</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>46008.6987037037</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>45769</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44411</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44383</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>44746.34457175926</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>46053.93969907407</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>46053.99731481481</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19475,7 +19475,7 @@
         <v>44525.63929398148</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19532,7 +19532,7 @@
         <v>46057.29586805555</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>45176.56863425926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>45009</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19718,7 +19718,7 @@
         <v>46057.2934837963</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>45572.62980324074</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>45601.60576388889</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>46014.34587962963</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44782</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>46063.6312962963</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>45590</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>46063.7159837963</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>46063.71302083333</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44592</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>45363.53322916666</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20375,7 +20375,7 @@
         <v>45763</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>46024.36721064815</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44874</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44308</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>45534.58140046296</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>44460</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20737,7 +20737,7 @@
         <v>44749.39806712963</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20794,7 +20794,7 @@
         <v>45238</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>45572.48516203704</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45687.51539351852</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>45755.61793981482</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>45098.65641203704</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>45450.39145833333</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>45643</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>44522.66836805556</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45219.44515046296</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>45763.64383101852</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         <v>45174</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>45176</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>45237.83621527778</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>45763</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>45642.37226851852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21704,7 +21704,7 @@
         <v>44523</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>45764.55017361111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>45533.33909722222</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21880,7 +21880,7 @@
         <v>45236.58434027778</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21937,7 +21937,7 @@
         <v>45541.42298611111</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21994,7 +21994,7 @@
         <v>44960.50733796296</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>45572.6216087963</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>45583.34902777777</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22175,7 +22175,7 @@
         <v>45082</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>45303</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>45621</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44902.3759375</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>45162</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>45372.58425925926</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>45731.47399305556</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>45758.5594212963</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>45742.55043981481</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         <v>44260</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22770,7 +22770,7 @@
         <v>45756</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22827,7 +22827,7 @@
         <v>45756</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>45231</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         <v>44608.45725694444</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22998,7 +22998,7 @@
         <v>44942</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23055,7 +23055,7 @@
         <v>45572.40844907407</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23117,7 +23117,7 @@
         <v>45643.69060185185</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>44823</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>45715.57746527778</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>45758.55883101852</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>45692.40298611111</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>45755.68921296296</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>45763.57651620371</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23541,7 +23541,7 @@
         <v>44861</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>45758.35846064815</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>45642.35061342592</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>45642.35097222222</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>44907.59805555556</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>45777.43930555556</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23908,7 +23908,7 @@
         <v>45776.43351851852</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23970,7 +23970,7 @@
         <v>45777.56322916667</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>45777.64827546296</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         <v>45755</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24156,7 +24156,7 @@
         <v>45764</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24213,7 +24213,7 @@
         <v>45195</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24270,7 +24270,7 @@
         <v>45490.70074074074</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>45420</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24384,7 +24384,7 @@
         <v>45764</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>45764</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>45614.43358796297</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24555,7 +24555,7 @@
         <v>45764</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24612,7 +24612,7 @@
         <v>45764</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24669,7 +24669,7 @@
         <v>45145</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24731,7 +24731,7 @@
         <v>45784</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24788,7 +24788,7 @@
         <v>45589.31677083333</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>45642.35274305556</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>45533.68363425926</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>45784.34652777778</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25031,7 +25031,7 @@
         <v>44817.50186342592</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25088,7 +25088,7 @@
         <v>45533</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25150,7 +25150,7 @@
         <v>45614.44175925926</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25207,7 +25207,7 @@
         <v>45462.35787037037</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>45643.34040509259</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25331,7 +25331,7 @@
         <v>45478.38640046296</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>45534.30509259259</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25455,7 +25455,7 @@
         <v>45517.32866898148</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>45588.61716435185</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         <v>44876.30667824074</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25641,7 +25641,7 @@
         <v>45343</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25698,7 +25698,7 @@
         <v>45733.39797453704</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25760,7 +25760,7 @@
         <v>45533.33751157407</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45572.6396875</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>45621.28127314815</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25946,7 +25946,7 @@
         <v>45692.30760416666</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>45691.43619212963</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26070,7 +26070,7 @@
         <v>45755.39212962963</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26132,7 +26132,7 @@
         <v>44817.34144675926</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>45817.62070601852</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>

--- a/Översikt HÄLLEFORS.xlsx
+++ b/Översikt HÄLLEFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45628</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>45951</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         <v>45132</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44323</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>45758.55810185185</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>45908.51018518519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>44314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>46072</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>45758.56012731481</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>44957</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>44594</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>45646.63039351852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45845.40576388889</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>45916.51012731482</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         <v>45916.50061342592</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>45540.37113425926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>45755.40261574074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
         <v>45989.65802083333</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>45784</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>44442.37515046296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44818</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>44543</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>45548.57174768519</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45692</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>45478.42475694444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>45763.51037037037</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>46000.515625</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>45755.38237268518</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>45176</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44909</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>45663.949375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>45623.32523148148</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>45399.34171296296</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>44271</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>44699</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>44264</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>44795</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44862</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>44314</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44314</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>44819</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>44748</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>44719.37908564815</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>44832.73575231482</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>44314</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>44792.65326388889</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>44350</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>44792.45469907407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>44266</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44477</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>44453</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>44314</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44357</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>44721</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>44606.48085648148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44515</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44714.49141203704</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44871.71204861111</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44260</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         <v>44525.66660879629</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5271,7 +5271,7 @@
         <v>44525</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>44858</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>44839</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>44792</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44812.48020833333</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>44616</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44887</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44810.66189814815</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>44386</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44525.65945601852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44256</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44593</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44750</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>44754</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>44754</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44590.84471064815</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44817.51229166667</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44610</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>44708.64967592592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>44762</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>44782</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44907</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>45624.68584490741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>45168</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45572.59605324074</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>45007.42528935185</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>44560.52915509259</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>45335</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>45764.44396990741</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>45201</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>45238</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>45027</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>45483.46465277778</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>44543</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44806</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>45145.61096064815</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>45450.3955787037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>45544.62276620371</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>45572.61984953703</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>45145.60365740741</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>44825.64613425926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>44754</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>45212</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>45055</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44657</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>44924.593125</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>45681</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>45730.6371412037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
         <v>44525.47178240741</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>45037.50085648148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44515.35802083334</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>45187</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>45821</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>45217</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>45821.35136574074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>45567.27908564815</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>45162</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>45888.6637962963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>45691.44689814815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44867.35501157407</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>44832.73646990741</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>44954.27407407408</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>45110.90550925926</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>45891.68451388889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>45750.44355324074</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>45412.35543981481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>45755.65709490741</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>45642.34987268518</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>45831.58487268518</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>44817</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>45895.85320601852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>44981</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>45898.5128587963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         <v>45427.26467592592</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>45835.58846064815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>45715.57903935185</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>45839.50719907408</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>45839.51949074074</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>45434.5571412037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44663.63033564815</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10103,7 +10103,7 @@
         <v>45635</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>45219.37791666666</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>45551</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>45666.49185185185</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10331,7 +10331,7 @@
         <v>44923</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>45845.36700231482</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>45845.37002314815</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         <v>45845.34341435185</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>45845.34695601852</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>45845.37733796296</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10693,7 +10693,7 @@
         <v>45845.38480324074</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>45845.40813657407</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>45845.41988425926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>45845.35355324074</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>45845.41581018519</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>45845.36309027778</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         <v>45845.34983796296</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>45845.35546296297</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>45845.47775462963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         <v>45845.4264699074</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>45728</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>44496.5028125</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>45068.53265046296</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>45916.5037037037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>45755.62278935185</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
         <v>45481.58833333333</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         <v>45691.425625</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11712,7 +11712,7 @@
         <v>45756.68074074074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>44616</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>45694</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11893,7 +11893,7 @@
         <v>45715.57984953704</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11950,7 +11950,7 @@
         <v>45523</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12007,7 +12007,7 @@
         <v>44438.65045138889</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>44756</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>45145.59578703704</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>45923.83761574074</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>45692.36032407408</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>45309</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>45755.59307870371</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>45731.46960648148</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>45700.62762731482</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>45077.39368055556</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12612,7 +12612,7 @@
         <v>45926.52738425926</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12669,7 +12669,7 @@
         <v>44868.3935300926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>45692</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>45917</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>45932.38244212963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>45932.42637731481</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>45876.34452546296</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>45932.39532407407</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>45932.38914351852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>45932.40252314815</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         <v>45710.81305555555</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>45936</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>45763.37480324074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>45882.58855324074</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>45936.85859953704</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>44804.70893518518</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>44979</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13636,7 +13636,7 @@
         <v>45824</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>45334</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>45764.4846412037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>45764.495625</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>45201</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13941,7 +13941,7 @@
         <v>45763</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14003,7 +14003,7 @@
         <v>45884</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>45946.62914351852</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44852</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>45692.37509259259</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>45946.47722222222</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44792.64494212963</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>45946.48537037037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>45399</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>45201</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>45952.72060185186</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>45666.49216435185</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>45623.32141203704</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>45548</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>45238</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>45954.41862268518</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>45954.42596064815</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>45755.5997337963</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>45959.38943287037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>45959.40310185185</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>45959.41048611111</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>45750</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>45961.5049537037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>45959.37532407408</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44348</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>45763.58991898148</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>45582</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>44930</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>45643</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>45968.533125</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         <v>44613</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>45567.29131944444</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>45755.58488425926</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>44613</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15989,7 +15989,7 @@
         <v>45980.5859375</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>45372.59753472222</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16103,7 +16103,7 @@
         <v>45980.45798611111</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16160,7 +16160,7 @@
         <v>45987.55640046296</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>45987.57491898148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>45987.58652777778</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>45987.56550925926</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>45987.57672453704</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>45987.58177083333</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>45987.57128472222</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>45493.31666666667</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>45987.56333333333</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>45201</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>44798</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>45763.53284722222</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>44351</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>46035.33097222223</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         <v>45316</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45239</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17142,7 +17142,7 @@
         <v>45427.79534722222</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17199,7 +17199,7 @@
         <v>45999.50795138889</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17261,7 +17261,7 @@
         <v>46042.33357638889</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17323,7 +17323,7 @@
         <v>46000.40052083333</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17385,7 +17385,7 @@
         <v>45755.39711805555</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>46000.41092592593</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17509,7 +17509,7 @@
         <v>46000.40797453704</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>45572.63357638889</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17633,7 +17633,7 @@
         <v>46043.62747685185</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>45763.49344907407</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17752,7 +17752,7 @@
         <v>46001.42888888889</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>46043.59318287037</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>46000.56178240741</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17933,7 +17933,7 @@
         <v>45219.44366898148</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17995,7 +17995,7 @@
         <v>45195.35254629629</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>45022</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>45764.56091435185</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18171,7 +18171,7 @@
         <v>46044.61620370371</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18228,7 +18228,7 @@
         <v>45623.3168287037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>46007.40847222223</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18352,7 +18352,7 @@
         <v>46006.61628472222</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>45764.50498842593</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>45232</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>45755.40039351852</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>45440</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>45007.42442129629</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>46008.69574074074</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>46008.74070601852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>45493.3153125</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>46008.69076388889</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>45000</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>45698</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>46008.6987037037</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>45769</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44411</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44383</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>44746.34457175926</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>46053.93969907407</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>46053.99731481481</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19475,7 +19475,7 @@
         <v>44525.63929398148</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19532,7 +19532,7 @@
         <v>46057.29586805555</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>45176.56863425926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>45009</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19718,7 +19718,7 @@
         <v>46057.2934837963</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>45572.62980324074</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>45601.60576388889</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>46014.34587962963</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44782</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>46063.6312962963</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>45590</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>46063.7159837963</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>46063.71302083333</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44592</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>45363.53322916666</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20375,7 +20375,7 @@
         <v>45763</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>46024.36721064815</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44874</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44308</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>45534.58140046296</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>44460</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20737,7 +20737,7 @@
         <v>44749.39806712963</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20794,7 +20794,7 @@
         <v>45238</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>45572.48516203704</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45687.51539351852</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>45755.61793981482</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>45098.65641203704</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>45450.39145833333</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>45643</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>44522.66836805556</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45219.44515046296</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>45763.64383101852</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         <v>45174</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>45176</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>45237.83621527778</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>45763</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>45642.37226851852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21704,7 +21704,7 @@
         <v>44523</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>45764.55017361111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>45533.33909722222</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21880,7 +21880,7 @@
         <v>45236.58434027778</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21937,7 +21937,7 @@
         <v>45541.42298611111</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21994,7 +21994,7 @@
         <v>44960.50733796296</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>45572.6216087963</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>45583.34902777777</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22175,7 +22175,7 @@
         <v>45082</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>45303</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>45621</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44902.3759375</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>45162</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>45372.58425925926</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>45731.47399305556</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>45758.5594212963</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>45742.55043981481</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         <v>44260</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22770,7 +22770,7 @@
         <v>45756</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22827,7 +22827,7 @@
         <v>45756</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>45231</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         <v>44608.45725694444</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22998,7 +22998,7 @@
         <v>44942</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23055,7 +23055,7 @@
         <v>45572.40844907407</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23117,7 +23117,7 @@
         <v>45643.69060185185</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>44823</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>45715.57746527778</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>45758.55883101852</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>45692.40298611111</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>45755.68921296296</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>45763.57651620371</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23541,7 +23541,7 @@
         <v>44861</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>45758.35846064815</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>45642.35061342592</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>45642.35097222222</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>44907.59805555556</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>45777.43930555556</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23908,7 +23908,7 @@
         <v>45776.43351851852</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23970,7 +23970,7 @@
         <v>45777.56322916667</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>45777.64827546296</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         <v>45755</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24156,7 +24156,7 @@
         <v>45764</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24213,7 +24213,7 @@
         <v>45195</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24270,7 +24270,7 @@
         <v>45490.70074074074</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>45420</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24384,7 +24384,7 @@
         <v>45764</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>45764</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>45614.43358796297</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24555,7 +24555,7 @@
         <v>45764</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24612,7 +24612,7 @@
         <v>45764</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24669,7 +24669,7 @@
         <v>45145</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24731,7 +24731,7 @@
         <v>45784</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24788,7 +24788,7 @@
         <v>45589.31677083333</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>45642.35274305556</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>45533.68363425926</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>45784.34652777778</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25031,7 +25031,7 @@
         <v>44817.50186342592</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25088,7 +25088,7 @@
         <v>45533</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25150,7 +25150,7 @@
         <v>45614.44175925926</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25207,7 +25207,7 @@
         <v>45462.35787037037</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>45643.34040509259</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25331,7 +25331,7 @@
         <v>45478.38640046296</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>45534.30509259259</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25455,7 +25455,7 @@
         <v>45517.32866898148</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>45588.61716435185</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         <v>44876.30667824074</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25641,7 +25641,7 @@
         <v>45343</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25698,7 +25698,7 @@
         <v>45733.39797453704</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25760,7 +25760,7 @@
         <v>45533.33751157407</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45572.6396875</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>45621.28127314815</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25946,7 +25946,7 @@
         <v>45692.30760416666</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>45691.43619212963</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26070,7 +26070,7 @@
         <v>45755.39212962963</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26132,7 +26132,7 @@
         <v>44817.34144675926</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>45817.62070601852</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>

--- a/Översikt HÄLLEFORS.xlsx
+++ b/Översikt HÄLLEFORS.xlsx
@@ -575,7 +575,7 @@
         <v>45628</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>45951</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         <v>45132</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44323</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>45758.55810185185</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>45908.51018518519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>44314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>44957</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45758.56012731481</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>46072</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45646.63039351852</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>45540.37113425926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45845.40576388889</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>45916.50061342592</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>45916.51012731482</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>45755.40261574074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>45989.65802083333</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>44594</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>45784</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>44442.37515046296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44818</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>44543</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>45755.38237268518</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>45692</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>45763.51037037037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>45478.42475694444</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>46000.515625</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>45548.57174768519</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>45176</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44909</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>45663.949375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>45399.34171296296</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>45623.32523148148</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>44271</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>44699</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>44264</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>44795</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44862</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>44314</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44314</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>44819</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>44748</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>44719.37908564815</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>44832.73575231482</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>44314</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>44792.65326388889</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>44350</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>44792.45469907407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>44266</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44453</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>44314</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44477</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44357</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>44721</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>44606.48085648148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44515</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44714.49141203704</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44871.71204861111</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44260</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         <v>44525.66660879629</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5271,7 +5271,7 @@
         <v>44525</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>44858</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>44839</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>44792</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44812.48020833333</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>44616</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>44348</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44887</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>44386</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44810.66189814815</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44525.65945601852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44256</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44593</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44750</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>44754</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>44754</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44590.84471064815</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44817.51229166667</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44610</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>44708.64967592592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>44762</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>44782</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>45219.44366898148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>45232</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>45763.58991898148</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45238</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6823,7 +6823,7 @@
         <v>45219.37791666666</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>44804.70893518518</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>44832.73646990741</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         <v>45755.68921296296</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>44798</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>45755.40039351852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44823</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>45533.33909722222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>45231</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>45763.37480324074</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>44806</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>45572.63357638889</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>44825.64613425926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>45450.39145833333</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>45334</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>44923</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>45481.58833333333</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>45635</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>44924.593125</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>45176</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         <v>45316</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>44515.35802083334</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>45201</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>45567.27908564815</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>45007.42442129629</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>45888.6637962963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>44960.50733796296</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44817.34144675926</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>45824</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>45763</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>45692.37509259259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>45691.44689814815</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>45755.39711805555</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>45687.51539351852</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>45027</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>45572.48516203704</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>44874</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9057,7 +9057,7 @@
         <v>45891.68451388889</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>45817.62070601852</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         <v>45145.61096064815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>45755.65709490741</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>45821.35136574074</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9357,7 +9357,7 @@
         <v>45821</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9414,7 +9414,7 @@
         <v>45399</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>45372.58425925926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>45895.85320601852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44907.59805555556</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9657,7 +9657,7 @@
         <v>44523</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9714,7 +9714,7 @@
         <v>45898.5128587963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>45548</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>45831.58487268518</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>45764.4846412037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>45764.495625</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44746.34457175926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>45238</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>45427.26467592592</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>45835.58846064815</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>45763.53284722222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>45839.51949074074</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>45730.6371412037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>45839.50719907408</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>45623.32141203704</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>45303</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>45624.68584490741</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>45009</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>45845.4264699074</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>45845.35355324074</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>45845.34983796296</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10904,7 +10904,7 @@
         <v>45845.35546296297</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>45845.36309027778</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>44867.35501157407</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>45845.41988425926</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>45845.36700231482</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>45845.37002314815</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>45845.47775462963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>45845.41581018519</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>45845.34341435185</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>45845.34695601852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>45845.37733796296</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>45845.38480324074</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>45845.40813657407</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>45642.37226851852</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         <v>45755.62278935185</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>45022</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>45000</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44616</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>45691.425625</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12052,7 +12052,7 @@
         <v>45756.68074074074</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>45916.5037037037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>45523</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>45698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>45427.79534722222</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>45601.60576388889</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>45692.36032407408</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>45145.59578703704</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>45755.59307870371</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>45681</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>45923.83761574074</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>45926.52738425926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>45692</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>45666.49185185185</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>45694</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44756</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>45917</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>45731.46960648148</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>45755.58488425926</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>45483.46465277778</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>45755.5997337963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>45932.38244212963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>45932.42637731481</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>45932.38914351852</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45932.39532407407</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>45932.40252314815</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>45876.34452546296</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>45055</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>45692.40298611111</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>45534.58140046296</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>45700.62762731482</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>44383</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>45763.57651620371</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>45882.58855324074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44817</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>45176.56863425926</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>45884</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>45750</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>45936</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>45728</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>44351</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>45758.55883101852</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>45758.5594212963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>45077.39368055556</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44525.63929398148</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>45936.85859953704</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>45715.57746527778</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>45715.57984953704</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>45750.44355324074</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>45082</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>45946.62914351852</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>45946.48537037037</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>45946.47722222222</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>45763.49344907407</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
         <v>44792.64494212963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>44411</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>45952.72060185186</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>45954.42596064815</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>44868.3935300926</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>45363.53322916666</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44438.65045138889</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15744,7 +15744,7 @@
         <v>45954.41862268518</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>44930</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>45037.50085648148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>45756</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>45758.35846064815</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>44543</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>45450.3955787037</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>44907</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45959.40310185185</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         <v>45959.41048611111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>45959.38943287037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>45959.37532407408</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>45961.5049537037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16505,7 +16505,7 @@
         <v>45237.83621527778</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>44657</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>45110.90550925926</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
         <v>45968.533125</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16738,7 +16738,7 @@
         <v>45145.60365740741</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>45544.62276620371</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>45493.31666666667</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44608.45725694444</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>45174</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17033,7 +17033,7 @@
         <v>45551</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17090,7 +17090,7 @@
         <v>45212</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>45098.65641203704</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45980.45798611111</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         <v>45162</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>44613</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>45980.5859375</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>45582</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17509,7 +17509,7 @@
         <v>45440</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17566,7 +17566,7 @@
         <v>45987.56333333333</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>45987.58652777778</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>45643</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17752,7 +17752,7 @@
         <v>45987.57128472222</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>45987.55640046296</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17876,7 +17876,7 @@
         <v>45987.57491898148</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         <v>45987.57672453704</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>45987.58177083333</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>45987.56550925926</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>45162</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>45710.81305555555</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>45764.56091435185</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>46000.41092592593</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>46042.33357638889</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>46000.40797453704</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>46000.56178240741</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>45999.50795138889</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>45763</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18677,7 +18677,7 @@
         <v>46000.40052083333</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44260</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>45642.35061342592</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>45642.35097222222</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44613</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>46043.62747685185</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>45755.61793981482</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>45623.3168287037</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>46044.61620370371</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>46043.59318287037</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19282,7 +19282,7 @@
         <v>46001.42888888889</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44782</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>45666.49216435185</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>46006.61628472222</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>45434.5571412037</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>46008.74070601852</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19634,7 +19634,7 @@
         <v>45195.35254629629</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19691,7 +19691,7 @@
         <v>45642.34987268518</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19753,7 +19753,7 @@
         <v>45572.61984953703</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>46008.69076388889</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>46008.6987037037</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>46008.69574074074</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>46007.40847222223</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44749.39806712963</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>45643</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>45769</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>45168</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>46053.93969907407</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20343,7 +20343,7 @@
         <v>46053.99731481481</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>45239</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>45764.50498842593</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>46057.2934837963</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20581,7 +20581,7 @@
         <v>45756</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>46014.34587962963</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>44861</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>46057.29586805555</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>45236.58434027778</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20881,7 +20881,7 @@
         <v>44754</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>45764.55017361111</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>46063.6312962963</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>45217</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>46063.71302083333</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>46063.7159837963</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>46024.36721064815</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44525.47178240741</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>45763</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         <v>45309</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21476,7 +21476,7 @@
         <v>44560.52915509259</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>45201</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>45007.42528935185</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>44308</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>44954.27407407408</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>44460</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45572.62980324074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>46035.33097222223</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>45567.29131944444</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>44522.66836805556</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22076,7 +22076,7 @@
         <v>44979</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22133,7 +22133,7 @@
         <v>44496.5028125</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22190,7 +22190,7 @@
         <v>46080.39054398148</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22252,7 +22252,7 @@
         <v>45572.40844907407</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22314,7 +22314,7 @@
         <v>45764.44396990741</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22376,7 +22376,7 @@
         <v>45493.3153125</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22433,7 +22433,7 @@
         <v>45372.59753472222</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22490,7 +22490,7 @@
         <v>45572.6216087963</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22547,7 +22547,7 @@
         <v>45572.59605324074</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>45201</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>44942</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>44852</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>44981</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>45219.44515046296</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44902.3759375</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22966,7 +22966,7 @@
         <v>45201</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44663.63033564815</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23090,7 +23090,7 @@
         <v>45643.69060185185</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44348</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>45068.53265046296</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>45238</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>44592</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45187</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>45590</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>45412.35543981481</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
         <v>45731.47399305556</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         <v>45335</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>45541.42298611111</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23732,7 +23732,7 @@
         <v>45621</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
         <v>45715.57903935185</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>45763.64383101852</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23908,7 +23908,7 @@
         <v>45742.55043981481</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23965,7 +23965,7 @@
         <v>45583.34902777777</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>45776.43351851852</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>45777.56322916667</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24151,7 +24151,7 @@
         <v>45777.43930555556</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24213,7 +24213,7 @@
         <v>45777.64827546296</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24275,7 +24275,7 @@
         <v>45764</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24332,7 +24332,7 @@
         <v>45764</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24389,7 +24389,7 @@
         <v>45764</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24446,7 +24446,7 @@
         <v>45764</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24503,7 +24503,7 @@
         <v>45764</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>45784.34652777778</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>45755</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24679,7 +24679,7 @@
         <v>45490.70074074074</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>45195</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>45420</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>45784</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>45614.43358796297</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>45145</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         <v>44817.50186342592</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25083,7 +25083,7 @@
         <v>45589.31677083333</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25145,7 +25145,7 @@
         <v>45642.35274305556</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25207,7 +25207,7 @@
         <v>45533.68363425926</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>45588.61716435185</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25331,7 +25331,7 @@
         <v>45462.35787037037</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>45533</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25455,7 +25455,7 @@
         <v>45534.30509259259</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>45614.44175925926</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>45478.38640046296</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25636,7 +25636,7 @@
         <v>45517.32866898148</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25698,7 +25698,7 @@
         <v>44876.30667824074</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25760,7 +25760,7 @@
         <v>45643.34040509259</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45692.30760416666</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>45533.33751157407</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25946,7 +25946,7 @@
         <v>45691.43619212963</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26008,7 +26008,7 @@
         <v>45621.28127314815</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26070,7 +26070,7 @@
         <v>45343</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26127,7 +26127,7 @@
         <v>45572.6396875</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26189,7 +26189,7 @@
         <v>45755.39212962963</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>45733.39797453704</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
